--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Southern Giant Petrel_South Georgia (Islas Georgias del Sur).xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Southern Giant Petrel_South Georgia (Islas Georgias del Sur).xlsx
@@ -2894,13 +2894,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E4B21E6-AF5F-471C-82D5-E1739840DB75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425D3981-206E-4B9E-B0CB-64452697899B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93027395-47D7-4403-AA32-F90F6F9CDEDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68946385-63E2-47F7-AD20-7C232143717C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D4C13AB-8B26-407F-A58B-5C7A65AF119E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{387026BD-2300-4B22-BE18-4DEA8D01F3FD}"/>
 </file>